--- a/Systems Engineering/Phase A - Concept and Technology Development/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase A - Concept and Technology Development/Technical Resource Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase A - Concept and Technology Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\RC-Plane\Systems Engineering\Phase A - Concept and Technology Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC88F270-2AEF-4AEC-8991-9A52A634FD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63D65C-A3EB-4924-9D7E-387D4FB4D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2430" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Object</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Total Cost</t>
-  </si>
-  <si>
-    <t>1 KG PLA</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -480,17 +477,17 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +495,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -507,7 +504,7 @@
         <v>270.89999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -547,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -561,7 +558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -575,7 +572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -583,7 +580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -622,34 +619,34 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <f>B16+E16+H16</f>
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -669,47 +666,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -723,7 +708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -731,7 +716,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -744,14 +729,14 @@
       </c>
       <c r="E16">
         <f>SUM(E6:E15)</f>
-        <v>57.5</v>
+        <v>39.5</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="H16">
         <f>SUM(H6:H15)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Systems Engineering/Phase A - Concept and Technology Development/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase A - Concept and Technology Development/Technical Resource Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\RC-Plane\Systems Engineering\Phase A - Concept and Technology Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63D65C-A3EB-4924-9D7E-387D4FB4D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C4A3C-A0C2-47E4-81DF-95A97AD8A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2430" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Object</t>
   </si>
@@ -60,27 +60,18 @@
     <t>Power</t>
   </si>
   <si>
-    <t xml:space="preserve">FlySky FS-iA6B Receiver </t>
-  </si>
-  <si>
     <t>Current Total Mass</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>FLASH HOBBY D2830 1000KV Motor</t>
-  </si>
-  <si>
     <t>40A RC and 3A UBEC</t>
   </si>
   <si>
     <t>SG90 Servo (4x)</t>
   </si>
   <si>
-    <t>OVONIC 3S Lipo Battery 25C 2200mAh </t>
-  </si>
-  <si>
     <t>Max Cost</t>
   </si>
   <si>
@@ -88,6 +79,15 @@
   </si>
   <si>
     <t>Cost ($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3S Lipo 2200mAh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS-iA6B Receiver </t>
+  </si>
+  <si>
+    <t>3S Lipo 2200mAh </t>
   </si>
 </sst>
 </file>
@@ -103,15 +103,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -119,12 +125,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD4CB5F5-4E55-4707-BDB5-71B6C7F85F15}" name="Table3" displayName="Table3" ref="D5:E16" totalsRowShown="0">
-  <autoFilter ref="D5:E16" xr:uid="{CD4CB5F5-4E55-4707-BDB5-71B6C7F85F15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD4CB5F5-4E55-4707-BDB5-71B6C7F85F15}" name="Table3" displayName="Table3" ref="C5:D16" totalsRowShown="0">
+  <autoFilter ref="C5:D16" xr:uid="{CD4CB5F5-4E55-4707-BDB5-71B6C7F85F15}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5AB93548-F255-49F1-91F9-D4F9A03D7392}" name="Object"/>
     <tableColumn id="2" xr3:uid="{333C35C0-86DE-41B6-B1CE-E424CA1A762A}" name="Mass (g)"/>
@@ -165,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81EAAC27-04A9-44F0-826B-B838A7ACBA45}" name="Table4" displayName="Table4" ref="G5:H16" totalsRowShown="0">
-  <autoFilter ref="G5:H16" xr:uid="{81EAAC27-04A9-44F0-826B-B838A7ACBA45}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81EAAC27-04A9-44F0-826B-B838A7ACBA45}" name="Table4" displayName="Table4" ref="E5:F16" totalsRowShown="0">
+  <autoFilter ref="E5:F16" xr:uid="{81EAAC27-04A9-44F0-826B-B838A7ACBA45}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5451E505-0907-48DC-AD0A-9B0828364266}" name="Object"/>
     <tableColumn id="2" xr3:uid="{F2D9ECFD-0E99-485F-801D-1263CFF350D3}" name="Mass (g)"/>
@@ -187,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="D5:E16" totalsRowShown="0">
-  <autoFilter ref="D5:E16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="C5:D16" totalsRowShown="0">
+  <autoFilter ref="C5:D16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{32AAEC9E-18AA-4FEB-9D7C-E2B8B5117BA8}" name="Object"/>
     <tableColumn id="2" xr3:uid="{37761C63-3D68-4E12-812C-377D98C8FCAE}" name="Cost ($)"/>
@@ -198,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="G5:H16" totalsRowShown="0">
-  <autoFilter ref="G5:H16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="E5:F16" totalsRowShown="0">
+  <autoFilter ref="E5:F16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7BA2C23-EE0D-48D0-8DBA-9ECFCDB718E6}" name="Object"/>
     <tableColumn id="2" xr3:uid="{1A2C6144-1E51-4613-A2BF-A592EEF1771F}" name="Cost ($)"/>
@@ -471,23 +545,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -495,111 +569,172 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>B16+D16+F16</f>
+        <v>218.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <f>B16+E16+H16</f>
-        <v>270.89999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>14.9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <f>SUM(B6:B15)</f>
         <v>50.9</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E6:E15)</f>
-        <v>220</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <f>SUM(H6:H15)</f>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(D6:D15)</f>
+        <v>168</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
+        <f>SUM(F6:F15)</f>
         <v>0</v>
       </c>
     </row>
@@ -616,126 +751,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C7A39F-1EB6-427B-9329-0D14A0290A39}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <f>B16+E16+H16</f>
+        <f>B16+D16+F16</f>
         <v>66.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <f>SUM(B6:B15)</f>
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E6:E15)</f>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D6:D15)</f>
         <v>39.5</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <f>SUM(H6:H15)</f>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F6:F15)</f>
         <v>0</v>
       </c>
     </row>
